--- a/Data/Processed/Angiosperms/missing_powo_ipni/Scrophulariaceae.xlsx
+++ b/Data/Processed/Angiosperms/missing_powo_ipni/Scrophulariaceae.xlsx
@@ -487,7 +487,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -575,7 +575,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -663,7 +663,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -751,7 +751,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -839,7 +839,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -927,7 +927,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -1015,7 +1015,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1191,7 +1191,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1279,7 +1279,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -2247,7 +2247,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -2257,7 +2257,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fieldiana, Bot. 31: 229. 1967 </t>
+          <t>Fieldiana, Bot. 31: 229. 1967</t>
         </is>
       </c>
       <c r="J28" t="b">
@@ -2325,7 +2325,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -2335,7 +2335,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bol. Commiss. Geogr. Estado Sao Paulo 13(Fl. Paul., pt. 2): 176, in clavi. 1897 </t>
+          <t>Bol. Commiss. Geogr. Estado Sao Paulo 13(Fl. Paul., pt. 2): 176, in clavi. 1897</t>
         </is>
       </c>
       <c r="J29" t="b">
@@ -2403,7 +2403,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -2413,7 +2413,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bol. Commiss. Geogr. Estado Sao Paulo 13(Fl. Paul., pt. 2): 176, in clavi. 1897 </t>
+          <t>Bol. Commiss. Geogr. Estado Sao Paulo 13(Fl. Paul., pt. 2): 176, in clavi. 1897</t>
         </is>
       </c>
       <c r="J30" t="b">
@@ -2481,7 +2481,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -2491,7 +2491,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t xml:space="preserve">Phytologia 19(6): 365. 1970 </t>
+          <t>Phytologia 19(6): 365. 1970</t>
         </is>
       </c>
       <c r="J31" t="b">
@@ -2559,7 +2559,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -2569,7 +2569,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t xml:space="preserve">Revista Sudamer. Bot. 4: 15. 1937 </t>
+          <t>Revista Sudamer. Bot. 4: 15. 1937</t>
         </is>
       </c>
       <c r="J32" t="b">
@@ -2637,7 +2637,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -2647,7 +2647,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t xml:space="preserve">Linnaea 3: 21. 1828 </t>
+          <t>Linnaea 3: 21. 1828</t>
         </is>
       </c>
       <c r="J33" t="b">
@@ -2715,7 +2715,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -2725,7 +2725,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bull. Torrey Bot. Club 56: 403. 1929 </t>
+          <t>Bull. Torrey Bot. Club 56: 403. 1929</t>
         </is>
       </c>
       <c r="J34" t="b">
@@ -2793,7 +2793,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2803,7 +2803,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t xml:space="preserve">Phytologia 19(6): 369. 1970 </t>
+          <t>Phytologia 19(6): 369. 1970</t>
         </is>
       </c>
       <c r="J35" t="b">
@@ -2871,7 +2871,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2881,7 +2881,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t xml:space="preserve">Phytologia 19(6): 374. 1970 </t>
+          <t>Phytologia 19(6): 374. 1970</t>
         </is>
       </c>
       <c r="J36" t="b">
@@ -2949,7 +2949,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2959,7 +2959,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t xml:space="preserve">Phytologia 19(6): 380. 1970 </t>
+          <t>Phytologia 19(6): 380. 1970</t>
         </is>
       </c>
       <c r="J37" t="b">
@@ -3027,7 +3027,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -3037,7 +3037,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t xml:space="preserve">Phytologia 19 (6): 388. 1970 </t>
+          <t>Phytologia 19 (6): 388. 1970</t>
         </is>
       </c>
       <c r="J38" t="b">
@@ -3105,7 +3105,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -3115,7 +3115,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t xml:space="preserve">Phytologia 19(6): 397. 1970 </t>
+          <t>Phytologia 19(6): 397. 1970</t>
         </is>
       </c>
       <c r="J39" t="b">
@@ -3183,7 +3183,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -3193,7 +3193,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t xml:space="preserve">Phytologia 19(6): 397. 1970 </t>
+          <t>Phytologia 19(6): 397. 1970</t>
         </is>
       </c>
       <c r="J40" t="b">
@@ -3261,7 +3261,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -3271,7 +3271,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t xml:space="preserve">Phytologia 19(6): 401. 1970 </t>
+          <t>Phytologia 19(6): 401. 1970</t>
         </is>
       </c>
       <c r="J41" t="b">
@@ -3339,7 +3339,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -3349,7 +3349,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t xml:space="preserve">Proc. Acad. Nat. Sci. Philadelphia 83: 419. 1931 </t>
+          <t>Proc. Acad. Nat. Sci. Philadelphia 83: 419. 1931</t>
         </is>
       </c>
       <c r="J42" t="b">
@@ -3417,7 +3417,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -3427,7 +3427,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bot. Jahrb. Syst. 76(2): 191. 1954 [Jan 1954] </t>
+          <t>Bot. Jahrb. Syst. 76(2): 191. 1954 [Jan 1954]</t>
         </is>
       </c>
       <c r="J43" t="b">
@@ -3495,7 +3495,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -3505,7 +3505,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bot. Jahrb. Syst. 30(1, Beibl. 67): 28. 1901 [12 Mar 1901] </t>
+          <t>Bot. Jahrb. Syst. 30(1, Beibl. 67): 28. 1901 [12 Mar 1901]</t>
         </is>
       </c>
       <c r="J44" t="b">
@@ -3573,7 +3573,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -3583,7 +3583,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bot. Jahrb. Syst. 76(2): 193. 1954 [Jan 1954] </t>
+          <t>Bot. Jahrb. Syst. 76(2): 193. 1954 [Jan 1954]</t>
         </is>
       </c>
       <c r="J45" t="b">
@@ -3651,7 +3651,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -3661,7 +3661,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fl. Bras. (Martius) 8(1): 309. 1862 [15 Jan 1862] </t>
+          <t>Fl. Bras. (Martius) 8(1): 309. 1862 [15 Jan 1862]</t>
         </is>
       </c>
       <c r="J46" t="b">
@@ -3729,7 +3729,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -3739,7 +3739,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t xml:space="preserve">Trans. Linn. Soc. London, Bot. ser. 2, 4: 407. 1895 </t>
+          <t>Trans. Linn. Soc. London, Bot. ser. 2, 4: 407. 1895</t>
         </is>
       </c>
       <c r="J47" t="b">
@@ -3807,7 +3807,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -3885,7 +3885,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -3895,7 +3895,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t xml:space="preserve">Linnaea 3(1): 18. 1828 [Jan 1828] </t>
+          <t>Linnaea 3(1): 18. 1828 [Jan 1828]</t>
         </is>
       </c>
       <c r="J49" t="b">
@@ -3963,7 +3963,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -3973,7 +3973,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fl. Flumin. 257. 1829 [1825 publ. 7 Sep-28 Nov 1829] </t>
+          <t>Fl. Flumin. 257. 1829 [1825 publ. 7 Sep-28 Nov 1829]</t>
         </is>
       </c>
       <c r="J50" t="b">
@@ -4041,7 +4041,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -4051,7 +4051,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fl. Flumin. 256. 1829 [1825 publ. 7 Sep-28 Nov 1829] </t>
+          <t>Fl. Flumin. 256. 1829 [1825 publ. 7 Sep-28 Nov 1829]</t>
         </is>
       </c>
       <c r="J51" t="b">
@@ -4119,7 +4119,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -4129,7 +4129,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bull. Soc. Bot. France 58(Mém. 3f): 509. 1911 </t>
+          <t>Bull. Soc. Bot. France 58(Mém. 3f): 509. 1911</t>
         </is>
       </c>
       <c r="J52" t="b">
@@ -4197,7 +4197,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -4207,7 +4207,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bull. Herb. Boissier ser. 2, 8: 85, fig. 32. 1908 </t>
+          <t>Bull. Herb. Boissier ser. 2, 8: 85, fig. 32. 1908</t>
         </is>
       </c>
       <c r="J53" t="b">
@@ -4275,7 +4275,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -4285,7 +4285,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fl. Flumin. Icon. 6: t. 88, 264. 1831 [1827 publ. 29 Oct 1831] </t>
+          <t>Fl. Flumin. Icon. 6: t. 88, 264. 1831 [1827 publ. 29 Oct 1831]</t>
         </is>
       </c>
       <c r="J54" t="b">
@@ -4353,7 +4353,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -4363,7 +4363,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hist. Pl. Remarq. Bresil Sig. 28: 217. [1825-26] </t>
+          <t>Hist. Pl. Remarq. Bresil Sig. 28: 217. [1825-26]</t>
         </is>
       </c>
       <c r="J55" t="b">
@@ -4428,7 +4428,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -4438,7 +4438,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bot. Jahrb. Syst. 12(1-2, Beibl. 27): 16. 1890 [24 Jun 1890] </t>
+          <t>Bot. Jahrb. Syst. 12(1-2, Beibl. 27): 16. 1890 [24 Jun 1890]</t>
         </is>
       </c>
       <c r="J56" t="b">
@@ -4506,7 +4506,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -4516,7 +4516,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ann. Bot. (Rome) 9: 106, tab. 1. 1911 </t>
+          <t>Ann. Bot. (Rome) 9: 106, tab. 1. 1911</t>
         </is>
       </c>
       <c r="J57" t="b">
@@ -4584,7 +4584,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -4594,7 +4594,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ark. Bot. 9, no. 15: 16, fig. 6. 1910 </t>
+          <t>Ark. Bot. 9, no. 15: 16, fig. 6. 1910</t>
         </is>
       </c>
       <c r="J58" t="b">
